--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="940">
   <si>
     <t>anchor score</t>
   </si>
@@ -325,541 +325,541 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>announces</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>announces</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>groups</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>social</t>
@@ -3199,10 +3199,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3260,7 +3260,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02912360665941161</v>
+        <v>0.02953047256096436</v>
       </c>
       <c r="C3">
         <v>232</v>
@@ -3281,28 +3281,28 @@
         <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="K3">
-        <v>0.00457693549674433</v>
+        <v>0.008073531639382275</v>
       </c>
       <c r="L3">
-        <v>813</v>
+        <v>224</v>
       </c>
       <c r="M3">
-        <v>858</v>
+        <v>224</v>
       </c>
       <c r="N3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2249</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3310,7 +3310,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01748803274422425</v>
+        <v>0.01773234603591484</v>
       </c>
       <c r="C4">
         <v>243</v>
@@ -3331,28 +3331,28 @@
         <v>271</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="K4">
-        <v>0.004557655285866379</v>
+        <v>0.007074630561632309</v>
       </c>
       <c r="L4">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="M4">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>266</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3360,7 +3360,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01239155502261124</v>
+        <v>0.01256466892518779</v>
       </c>
       <c r="C5">
         <v>42</v>
@@ -3381,28 +3381,28 @@
         <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>0.004063552233983283</v>
+        <v>0.00457693549674433</v>
       </c>
       <c r="L5">
-        <v>406</v>
+        <v>813</v>
       </c>
       <c r="M5">
-        <v>420</v>
+        <v>858</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>2781</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3410,7 +3410,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01098393955692459</v>
+        <v>0.01113738863082166</v>
       </c>
       <c r="C6">
         <v>33</v>
@@ -3431,28 +3431,28 @@
         <v>116</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="K6">
-        <v>0.003859400386782717</v>
+        <v>0.004557655285866379</v>
       </c>
       <c r="L6">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="M6">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="N6">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>94</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3460,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01047277545006241</v>
+        <v>0.01061908340137764</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -3481,28 +3481,28 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>282</v>
+        <v>98</v>
       </c>
       <c r="K7">
-        <v>0.003852340180318877</v>
+        <v>0.004063552233983283</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>406</v>
       </c>
       <c r="M7">
-        <v>51</v>
+        <v>420</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>179</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3510,7 +3510,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009367135127772198</v>
+        <v>0.009497996937688033</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -3531,28 +3531,28 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K8">
-        <v>0.003529104648604389</v>
+        <v>0.003859400386782717</v>
       </c>
       <c r="L8">
-        <v>531</v>
+        <v>282</v>
       </c>
       <c r="M8">
-        <v>563</v>
+        <v>289</v>
       </c>
       <c r="N8">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O8">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>1580</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3560,7 +3560,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.008550985347799783</v>
+        <v>0.00867044528981121</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -3581,28 +3581,28 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="K9">
-        <v>0.003436440579414203</v>
+        <v>0.003852340180318877</v>
       </c>
       <c r="L9">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="M9">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3610,7 +3610,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008112176981332316</v>
+        <v>0.00822550663310464</v>
       </c>
       <c r="C10">
         <v>18</v>
@@ -3631,28 +3631,28 @@
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="K10">
-        <v>0.003411689807854613</v>
+        <v>0.003529104648604389</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>531</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>563</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>75</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3660,7 +3660,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008112176981332316</v>
+        <v>0.00822550663310464</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -3681,28 +3681,28 @@
         <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="K11">
-        <v>0.003325303892543971</v>
+        <v>0.003436440579414203</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3710,7 +3710,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007883618956770018</v>
+        <v>0.007993755581394016</v>
       </c>
       <c r="C12">
         <v>17</v>
@@ -3731,28 +3731,28 @@
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="K12">
-        <v>0.003309142813917095</v>
+        <v>0.003411689807854613</v>
       </c>
       <c r="L12">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3760,7 +3760,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007883618956770018</v>
+        <v>0.007993755581394016</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -3781,28 +3781,28 @@
         <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="K13">
-        <v>0.003200951352626265</v>
+        <v>0.003325303892543971</v>
       </c>
       <c r="L13">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>199</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3810,7 +3810,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007648233804913998</v>
+        <v>0.007755082025284292</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -3831,28 +3831,28 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="K14">
-        <v>0.003098821156446546</v>
+        <v>0.003309142813917095</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>267</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3860,7 +3860,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007648233804913998</v>
+        <v>0.007755082025284292</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -3881,28 +3881,28 @@
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="K15">
-        <v>0.003087779444405112</v>
+        <v>0.003200951352626265</v>
       </c>
       <c r="L15">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="N15">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>632</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3910,7 +3910,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007405370538583126</v>
+        <v>0.007508825883099637</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3931,28 +3931,28 @@
         <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="K16">
-        <v>0.003077757053129783</v>
+        <v>0.003098821156446546</v>
       </c>
       <c r="L16">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>318</v>
+        <v>33</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>576</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3960,7 +3960,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007405370538583126</v>
+        <v>0.007508825883099637</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3981,28 +3981,28 @@
         <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="K17">
-        <v>0.003051508131402444</v>
+        <v>0.003087779444405112</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>92</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4010,7 +4010,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007405370538583126</v>
+        <v>0.007508825883099637</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -4031,28 +4031,28 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>287</v>
+        <v>100</v>
       </c>
       <c r="K18">
-        <v>0.003003449881784239</v>
+        <v>0.003077757053129783</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>304</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4060,7 +4060,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007154267627982657</v>
+        <v>0.007254214986235697</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -4081,16 +4081,16 @@
         <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K19">
-        <v>0.002854424485165675</v>
+        <v>0.003051508131402444</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4110,7 +4110,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006894024787588616</v>
+        <v>0.006990336471897909</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -4131,16 +4131,16 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K20">
-        <v>0.002802989200458656</v>
+        <v>0.003003449881784239</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4160,7 +4160,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006894024787588616</v>
+        <v>0.006990336471897909</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -4181,16 +4181,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K21">
-        <v>0.002802989200458656</v>
+        <v>0.002854424485165675</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4210,7 +4210,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006894024787588616</v>
+        <v>0.006990336471897909</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -4231,16 +4231,16 @@
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K22">
-        <v>0.002750592258816704</v>
+        <v>0.002802989200458656</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4260,7 +4260,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006894024787588616</v>
+        <v>0.006990336471897909</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -4281,16 +4281,16 @@
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K23">
-        <v>0.002750592258816704</v>
+        <v>0.002802989200458656</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4310,7 +4310,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006623564769138439</v>
+        <v>0.00671609804232827</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -4331,16 +4331,16 @@
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K24">
-        <v>0.002642683561649299</v>
+        <v>0.002750592258816704</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4360,7 +4360,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006341580459952993</v>
+        <v>0.006430174324074361</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -4381,16 +4381,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K25">
-        <v>0.002587041886670169</v>
+        <v>0.002750592258816704</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4410,7 +4410,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006341580459952993</v>
+        <v>0.006430174324074361</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4431,16 +4431,16 @@
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K26">
-        <v>0.002587041886670169</v>
+        <v>0.002642683561649299</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4460,7 +4460,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006341580459952993</v>
+        <v>0.006430174324074361</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4481,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K27">
         <v>0.002587041886670169</v>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>96</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4510,7 +4510,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006341580459952993</v>
+        <v>0.006430174324074361</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -4531,28 +4531,28 @@
         <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="K28">
-        <v>0.002560200155405909</v>
+        <v>0.002587041886670169</v>
       </c>
       <c r="L28">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>394</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4560,7 +4560,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006046459725256035</v>
+        <v>0.006130930660332467</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4581,16 +4581,16 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K29">
-        <v>0.002530176879145107</v>
+        <v>0.002587041886670169</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4610,7 +4610,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005736175353685499</v>
+        <v>0.005816311518963219</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4631,28 +4631,28 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="K30">
-        <v>0.002472004117337792</v>
+        <v>0.002560200155405909</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4660,7 +4660,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005736175353685499</v>
+        <v>0.005816311518963219</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4681,28 +4681,28 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="K31">
-        <v>0.002360859375716536</v>
+        <v>0.002530176879145107</v>
       </c>
       <c r="L31">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4710,7 +4710,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005736175353685499</v>
+        <v>0.005816311518963219</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4731,16 +4731,16 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K32">
-        <v>0.002351344931923865</v>
+        <v>0.002472004117337792</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>206</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4760,7 +4760,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -4781,28 +4781,28 @@
         <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="K33">
-        <v>0.002351344931923865</v>
+        <v>0.002360859375716536</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4810,7 +4810,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -4831,28 +4831,28 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="K34">
-        <v>0.002307858718386465</v>
+        <v>0.002351344931923865</v>
       </c>
       <c r="L34">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4860,7 +4860,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -4881,16 +4881,16 @@
         <v>6</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K35">
-        <v>0.002288631098551833</v>
+        <v>0.002351344931923865</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4910,7 +4910,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -4931,28 +4931,28 @@
         <v>43</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="K36">
-        <v>0.002288631098551833</v>
+        <v>0.002307858718386465</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>154</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4960,7 +4960,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -4981,28 +4981,28 @@
         <v>72</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c r="K37">
-        <v>0.002245022323950184</v>
+        <v>0.002288631098551833</v>
       </c>
       <c r="L37">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5010,7 +5010,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -5031,28 +5031,28 @@
         <v>23</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
       <c r="K38">
-        <v>0.002230453419127323</v>
+        <v>0.002288631098551833</v>
       </c>
       <c r="L38">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5060,7 +5060,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -5081,28 +5081,28 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>303</v>
+        <v>137</v>
       </c>
       <c r="K39">
-        <v>0.002157742092560558</v>
+        <v>0.002230453419127323</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5110,7 +5110,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -5131,7 +5131,7 @@
         <v>8</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K40">
         <v>0.002157742092560558</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5160,7 +5160,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -5181,7 +5181,7 @@
         <v>16</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K41">
         <v>0.002157742092560558</v>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>112</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5210,7 +5210,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -5231,7 +5231,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K42">
         <v>0.002157742092560558</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>290</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5260,7 +5260,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -5281,16 +5281,16 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K43">
-        <v>0.002089224797474446</v>
+        <v>0.002157742092560558</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>61</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5310,7 +5310,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -5331,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K44">
         <v>0.002089224797474446</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5360,7 +5360,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -5381,28 +5381,28 @@
         <v>27</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="K45">
-        <v>0.002059214215212343</v>
+        <v>0.002089224797474446</v>
       </c>
       <c r="L45">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5410,7 +5410,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -5431,28 +5431,28 @@
         <v>32</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K46">
-        <v>0.002031823226926303</v>
+        <v>0.002059214215212343</v>
       </c>
       <c r="L46">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="M46">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>218</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5460,7 +5460,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -5481,28 +5481,28 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>309</v>
+        <v>138</v>
       </c>
       <c r="K47">
-        <v>0.002018382909845569</v>
+        <v>0.002031823226926303</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5510,7 +5510,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -5531,7 +5531,7 @@
         <v>12</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K48">
         <v>0.002018382909845569</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5560,7 +5560,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -5581,7 +5581,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K49">
         <v>0.002018382909845569</v>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5610,7 +5610,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -5631,7 +5631,7 @@
         <v>15</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K50">
         <v>0.002018382909845569</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5660,7 +5660,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004683567563886099</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -5681,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K51">
         <v>0.002018382909845569</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>44</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004683567563886099</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -5731,28 +5731,28 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="K52">
-        <v>0.002005492920153401</v>
+        <v>0.002018382909845569</v>
       </c>
       <c r="L52">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004683567563886099</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5781,28 +5781,28 @@
         <v>3</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="K53">
-        <v>0.001944962438488514</v>
+        <v>0.002005492920153401</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5810,7 +5810,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004683567563886099</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -5831,28 +5831,28 @@
         <v>13</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="K54">
-        <v>0.001892281696976567</v>
+        <v>0.001944962438488514</v>
       </c>
       <c r="L54">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>688</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -5860,7 +5860,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004683567563886099</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -5881,28 +5881,28 @@
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="K55">
-        <v>0.00186902075464349</v>
+        <v>0.001892281696976567</v>
       </c>
       <c r="L55">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="M55">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>85</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -5910,7 +5910,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -5931,28 +5931,28 @@
         <v>247</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>315</v>
+        <v>152</v>
       </c>
       <c r="K56">
-        <v>0.001868659466972437</v>
+        <v>0.00186902075464349</v>
       </c>
       <c r="L56">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="M56">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -5960,7 +5960,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -5981,7 +5981,7 @@
         <v>4</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K57">
         <v>0.001868659466972437</v>
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -6010,7 +6010,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -6031,28 +6031,28 @@
         <v>21</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>140</v>
+        <v>316</v>
       </c>
       <c r="K58">
-        <v>0.001843209374967441</v>
+        <v>0.001868659466972437</v>
       </c>
       <c r="L58">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="M58">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6060,7 +6060,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -6081,7 +6081,7 @@
         <v>18</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K59">
         <v>0.001800022363260131</v>
@@ -6110,7 +6110,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -6160,7 +6160,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -6210,7 +6210,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -6260,7 +6260,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -6310,7 +6310,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -6360,7 +6360,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6410,7 +6410,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6460,7 +6460,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -6481,7 +6481,7 @@
         <v>26</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K67">
         <v>0.001723522873536706</v>
@@ -6510,7 +6510,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -6560,7 +6560,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -6610,7 +6610,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -6660,7 +6660,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003816782374509901</v>
+        <v>0.00387010401904371</v>
       </c>
       <c r="C71">
         <v>45</v>
@@ -6710,7 +6710,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -6760,7 +6760,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -6810,7 +6810,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -6860,7 +6860,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -6910,7 +6910,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -6960,7 +6960,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003070816654603748</v>
+        <v>0.00311371692452189</v>
       </c>
       <c r="C77">
         <v>32</v>
@@ -7010,7 +7010,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -7031,7 +7031,7 @@
         <v>7</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K78">
         <v>0.001681341366118649</v>
@@ -7060,7 +7060,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7081,7 +7081,7 @@
         <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K79">
         <v>0.001634311370097406</v>
@@ -7110,7 +7110,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7131,7 +7131,7 @@
         <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K80">
         <v>0.001627240163357051</v>
@@ -7160,7 +7160,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7210,7 +7210,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7260,7 +7260,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7310,7 +7310,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7360,7 +7360,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7410,7 +7410,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7460,7 +7460,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7510,7 +7510,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7560,7 +7560,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7581,7 +7581,7 @@
         <v>9</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K89">
         <v>0.001584840104988531</v>
@@ -7610,7 +7610,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -7631,7 +7631,7 @@
         <v>371</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K90">
         <v>0.001535878378662959</v>
@@ -7660,7 +7660,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -7710,7 +7710,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -7760,7 +7760,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002674659303698014</v>
+        <v>0.002712025131415436</v>
       </c>
       <c r="C93">
         <v>14</v>
@@ -7810,7 +7810,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00240911893924299</v>
+        <v>0.002442775084947257</v>
       </c>
       <c r="C94">
         <v>18</v>
@@ -7860,7 +7860,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002341117348740676</v>
+        <v>0.002373823490939185</v>
       </c>
       <c r="C95">
         <v>14</v>
@@ -7910,7 +7910,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002155291042202796</v>
+        <v>0.002185401132730029</v>
       </c>
       <c r="C96">
         <v>7</v>
@@ -7931,7 +7931,7 @@
         <v>94</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K96">
         <v>0.001512219424397097</v>
@@ -7960,7 +7960,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.00215059192968831</v>
+        <v>0.002180636372142759</v>
       </c>
       <c r="C97">
         <v>10</v>
@@ -7981,7 +7981,7 @@
         <v>632</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K97">
         <v>0.001464934195027839</v>
@@ -8010,25 +8010,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001989400828998809</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C98">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>347</v>
@@ -8060,7 +8060,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>348</v>
@@ -8110,7 +8110,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>349</v>
@@ -8160,7 +8160,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>350</v>
@@ -8210,7 +8210,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>351</v>
@@ -8260,7 +8260,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>352</v>
@@ -8310,7 +8310,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8360,7 +8360,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8378,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>354</v>
@@ -8410,7 +8410,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>355</v>
@@ -8460,7 +8460,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>356</v>
@@ -8510,7 +8510,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>357</v>
@@ -8560,7 +8560,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>358</v>
@@ -8610,7 +8610,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>359</v>
@@ -8660,7 +8660,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>360</v>
@@ -8710,7 +8710,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>361</v>
@@ -8760,7 +8760,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>362</v>
@@ -8810,7 +8810,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>363</v>
@@ -8860,7 +8860,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8910,7 +8910,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>365</v>
@@ -8960,7 +8960,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>366</v>
@@ -9010,7 +9010,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>367</v>
@@ -9060,7 +9060,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9078,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>368</v>
@@ -9110,7 +9110,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>369</v>
@@ -9160,7 +9160,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>370</v>
@@ -9210,7 +9210,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9228,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>371</v>
@@ -9260,7 +9260,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9278,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>372</v>
@@ -9310,7 +9310,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>373</v>
@@ -9360,7 +9360,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>374</v>
@@ -9410,7 +9410,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>375</v>
@@ -9460,7 +9460,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>376</v>
@@ -9510,7 +9510,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>377</v>
@@ -9560,7 +9560,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>378</v>
@@ -9610,7 +9610,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>379</v>
@@ -9660,7 +9660,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>380</v>
@@ -9710,28 +9710,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0019120584512285</v>
+        <v>0.001899102155531044</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K132">
         <v>0.001308647279443499</v>
@@ -9760,28 +9760,28 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001872936644327126</v>
+        <v>0.001844949491067274</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E133">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F133">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K133">
         <v>0.00128886875258086</v>
@@ -9810,28 +9810,28 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001819530086198195</v>
+        <v>0.001744127264800649</v>
       </c>
       <c r="C134">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D134">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="E134">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F134">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>218</v>
+        <v>394</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K134">
         <v>0.00128886875258086</v>
@@ -9860,25 +9860,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001725689641575171</v>
+        <v>0.001740260858946004</v>
       </c>
       <c r="C135">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D135">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E135">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F135">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>55</v>
+        <v>688</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>381</v>
@@ -9910,25 +9910,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001720096971666976</v>
+        <v>0.001632558601657623</v>
       </c>
       <c r="C136">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D136">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E136">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F136">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>394</v>
+        <v>484</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>382</v>
@@ -9960,13 +9960,13 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001716283836504176</v>
+        <v>0.001617352824806682</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D137">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="E137">
         <v>0.9399999999999999</v>
@@ -9978,7 +9978,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>688</v>
+        <v>263</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>383</v>
@@ -10010,25 +10010,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001610065482865506</v>
+        <v>0.001568971618517332</v>
       </c>
       <c r="C138">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="E138">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F138">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>484</v>
+        <v>266</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>384</v>
@@ -10060,25 +10060,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001595069208659485</v>
+        <v>0.001505861799477332</v>
       </c>
       <c r="C139">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D139">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E139">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F139">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>385</v>
@@ -10110,25 +10110,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001547354590521561</v>
+        <v>0.001376079291290556</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="E140">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F140">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>266</v>
+        <v>8</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>386</v>
@@ -10160,13 +10160,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001485114287990906</v>
+        <v>0.001308318252724414</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D141">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="E141">
         <v>0.97</v>
@@ -10178,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>387</v>
@@ -10210,25 +10210,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001357119901450006</v>
+        <v>0.001283496124951209</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D142">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E142">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F142">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>388</v>
@@ -10260,25 +10260,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001290292463116282</v>
+        <v>0.001276681008869291</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D143">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E143">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F143">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>389</v>
@@ -10310,13 +10310,13 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001265812330459277</v>
+        <v>0.00116402279683119</v>
       </c>
       <c r="C144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D144">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E144">
         <v>0.93</v>
@@ -10328,7 +10328,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>390</v>
@@ -10360,25 +10360,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001259091111904502</v>
+        <v>0.001154185706315634</v>
       </c>
       <c r="C145">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E145">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F145">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>391</v>
@@ -10410,19 +10410,19 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001147985085830022</v>
+        <v>0.001132197574206886</v>
       </c>
       <c r="C146">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E146">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F146">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -10460,13 +10460,13 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001138283529098864</v>
+        <v>0.001119566089416084</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
       <c r="D147">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E147">
         <v>0.97</v>
@@ -10478,7 +10478,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>393</v>
@@ -10510,13 +10510,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001116598345789036</v>
+        <v>0.001118827547162202</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E148">
         <v>0.99</v>
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>394</v>
@@ -10560,25 +10560,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001104140895478609</v>
+        <v>0.001114110339074475</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E149">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F149">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>395</v>
@@ -10610,13 +10610,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001103412528736119</v>
+        <v>0.001107016408344504</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E150">
         <v>0.99</v>
@@ -10628,7 +10628,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>396</v>
@@ -10660,25 +10660,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001098760313550807</v>
+        <v>0.00108694284167363</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D151">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E151">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F151">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>397</v>
@@ -10710,25 +10710,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.00109176412180947</v>
+        <v>0.001083295460438443</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D152">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E152">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F152">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>398</v>
@@ -10760,25 +10760,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0010719671253758</v>
+        <v>0.001068237380114821</v>
       </c>
       <c r="C153">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E153">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F153">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>399</v>
@@ -10810,25 +10810,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.00106836999714796</v>
+        <v>0.001039948151403022</v>
       </c>
       <c r="C154">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E154">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F154">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>400</v>
@@ -10860,13 +10860,13 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001053519384531259</v>
+        <v>0.001025049149583215</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
       <c r="D155">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E155">
         <v>0.97</v>
@@ -10878,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>401</v>
@@ -10910,25 +10910,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001025619920071296</v>
+        <v>0.0009854349775662474</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D156">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E156">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F156">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>103</v>
+        <v>1098</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>402</v>
@@ -10960,28 +10960,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001010926194201446</v>
+        <v>0.0009734783723820622</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D157">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E157">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F157">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K157">
         <v>0.001188887881471951</v>
@@ -11010,28 +11010,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0009718578196070788</v>
+        <v>0.0009337790887767392</v>
       </c>
       <c r="C158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E158">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F158">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1098</v>
+        <v>186</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K158">
         <v>0.001167740384949968</v>
@@ -11060,28 +11060,28 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.00096006595052516</v>
+        <v>0.0008871646150347127</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E159">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F159">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K159">
         <v>0.001103347868753876</v>
@@ -11110,28 +11110,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.000920913636995637</v>
+        <v>0.0008849237955608594</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E160">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F160">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K160">
         <v>0.001098195166259476</v>
@@ -11160,28 +11160,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.000874941409660108</v>
+        <v>0.0008717449882447065</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E161">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F161">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K161">
         <v>0.001086030016630379</v>
@@ -11210,13 +11210,13 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0008727314638213976</v>
+        <v>0.0008660495657582452</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E162">
         <v>0.98</v>
@@ -11228,10 +11228,10 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K162">
         <v>0.001086030016630379</v>
@@ -11260,25 +11260,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0008597342319036406</v>
+        <v>0.000838642812043793</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <v>43</v>
       </c>
       <c r="E163">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F163">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>403</v>
@@ -11310,25 +11310,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0008541172799936285</v>
+        <v>0.0007953702119635859</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E164">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F164">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>404</v>
@@ -11360,25 +11360,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0008270881319384033</v>
+        <v>0.0007953702119635859</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D165">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E165">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F165">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>405</v>
@@ -11410,25 +11410,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0007844117344894889</v>
+        <v>0.00078299958980004</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E166">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F166">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>406</v>
@@ -11460,25 +11460,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0007844117344894889</v>
+        <v>0.00078299958980004</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E167">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F167">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>407</v>
@@ -11510,13 +11510,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0007722115526847604</v>
+        <v>0.0007553578953961411</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E168">
         <v>0.97</v>
@@ -11528,7 +11528,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>408</v>
@@ -11560,25 +11560,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0007722115526847604</v>
+        <v>0.0007476069843038286</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D169">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E169">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F169">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>409</v>
@@ -11610,25 +11610,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.000744950700913531</v>
+        <v>0.0007341743066854689</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E170">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F170">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>410</v>
@@ -11660,25 +11660,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0007373065805751733</v>
+        <v>0.0007341743066854689</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E171">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F171">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>93</v>
+        <v>513</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>411</v>
@@ -11710,25 +11710,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0007240589761376839</v>
+        <v>0.0007248192047197954</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E172">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F172">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>412</v>
@@ -11760,25 +11760,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0007240589761376839</v>
+        <v>0.0007248192047197954</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E173">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F173">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>513</v>
+        <v>155</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>413</v>
@@ -11810,25 +11810,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0007148327671989514</v>
+        <v>0.0007025606708400866</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E174">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F174">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>414</v>
@@ -11860,25 +11860,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0007148327671989514</v>
+        <v>0.0006907813039147111</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E175">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F175">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>415</v>
@@ -11910,13 +11910,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0006928809076684429</v>
+        <v>0.0006907813039147111</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E176">
         <v>0.96</v>
@@ -11928,7 +11928,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>416</v>
@@ -11960,25 +11960,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0006812638348863094</v>
+        <v>0.0006821077234426052</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D177">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E177">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F177">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>417</v>
@@ -12010,13 +12010,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0006812638348863094</v>
+        <v>0.0006524401177584562</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E178">
         <v>0.96</v>
@@ -12028,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>418</v>
@@ -12060,25 +12060,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0006727097575522312</v>
+        <v>0.0006385237523331543</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E179">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F179">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>419</v>
@@ -12110,25 +12110,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0006434509071668222</v>
+        <v>0.0006239594799793865</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E180">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F180">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>420</v>
@@ -12160,25 +12160,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0006297262790919272</v>
+        <v>0.0006239594799793865</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E181">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F181">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>421</v>
@@ -12210,13 +12210,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0006153626708416357</v>
+        <v>0.0006086901148962947</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E182">
         <v>0.95</v>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>422</v>
@@ -12260,13 +12260,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0006153626708416357</v>
+        <v>0.0006086901148962947</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E183">
         <v>0.95</v>
@@ -12278,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>423</v>
@@ -12310,13 +12310,13 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0006003036845114692</v>
+        <v>0.0005926508019483515</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E184">
         <v>0.95</v>
@@ -12328,7 +12328,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>339</v>
+        <v>52</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>424</v>
@@ -12360,13 +12360,13 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0006003036845114692</v>
+        <v>0.0005926508019483515</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E185">
         <v>0.95</v>
@@ -12378,7 +12378,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>425</v>
@@ -12410,7 +12410,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0005844853585290878</v>
+        <v>0.0005926508019483515</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12428,7 +12428,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>426</v>
@@ -12460,13 +12460,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005844853585290878</v>
+        <v>0.0005757676091599168</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E187">
         <v>0.95</v>
@@ -12478,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>427</v>
@@ -12510,25 +12510,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0005844853585290878</v>
+        <v>0.0005715114069992395</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E188">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="F188">
-        <v>0.05000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>428</v>
@@ -12560,25 +12560,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0005678347795412203</v>
+        <v>0.0005391176082688939</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F189">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>429</v>
@@ -12610,25 +12610,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0005636372186205611</v>
+        <v>0.0005191396308302273</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E190">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F190">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>430</v>
@@ -12660,25 +12660,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0005316897362198283</v>
+        <v>0.0004978892585684481</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E191">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F191">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>431</v>
@@ -12710,25 +12710,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0005119870120059451</v>
+        <v>0.0004891885438856177</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E192">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F192">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>432</v>
@@ -12760,13 +12760,13 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0004910294238115651</v>
+        <v>0.000475210316867298</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E193">
         <v>0.93</v>
@@ -12778,7 +12778,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>433</v>
@@ -12810,25 +12810,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.00048244858611737</v>
+        <v>0.000475210316867298</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E194">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F194">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>434</v>
@@ -12860,7 +12860,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0004686629487681176</v>
+        <v>0.000475210316867298</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -12878,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>435</v>
@@ -12910,7 +12910,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0004686629487681176</v>
+        <v>0.000475210316867298</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -12928,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>436</v>
@@ -12960,7 +12960,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0004686629487681176</v>
+        <v>0.000475210316867298</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -12978,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>437</v>
@@ -13010,25 +13010,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0004686629487681176</v>
+        <v>0.0004509173532572717</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E198">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F198">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>438</v>
@@ -13060,25 +13060,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0004686629487681176</v>
+        <v>0.0004509173532572717</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E199">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F199">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>439</v>
@@ -13110,7 +13110,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0004447046895391396</v>
+        <v>0.0004509173532572717</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13128,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>440</v>
@@ -13160,25 +13160,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0004447046895391396</v>
+        <v>0.0004412832929365977</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D201">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E201">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F201">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>441</v>
@@ -13210,13 +13210,13 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0004447046895391396</v>
+        <v>0.0004247882251899643</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E202">
         <v>0.92</v>
@@ -13228,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>442</v>
@@ -13260,25 +13260,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0004352033656868676</v>
+        <v>0.0003965544165626745</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E203">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F203">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>443</v>
@@ -13310,25 +13310,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0004189355642190264</v>
+        <v>0.0003965544165626745</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E204">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F204">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>444</v>
@@ -13360,7 +13360,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0003910907562749358</v>
+        <v>0.0003965544165626745</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13378,7 +13378,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>445</v>
@@ -13410,28 +13410,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0003910907562749358</v>
+        <v>0.0003902850984662346</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D206">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E206">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="F206">
-        <v>0.08999999999999997</v>
+        <v>0.23</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>46</v>
+        <v>921</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K206">
         <v>0.001070577624256717</v>
@@ -13460,28 +13460,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0003910907562749358</v>
+        <v>0.0003658884061962296</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E207">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F207">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K207">
         <v>0.001039243395975583</v>
@@ -13510,28 +13510,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0003849078157924729</v>
+        <v>0.0003658884061962296</v>
       </c>
       <c r="C208">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E208">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="F208">
-        <v>0.23</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>921</v>
+        <v>40</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K208">
         <v>0.001015731344484166</v>
@@ -13560,7 +13560,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0003608472570596081</v>
+        <v>0.0003658884061962296</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13578,10 +13578,10 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K209">
         <v>0.0009951907474070397</v>
@@ -13610,28 +13610,28 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0003608472570596081</v>
+        <v>0.00036030629990326</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E210">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F210">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K210">
         <v>0.0009800322941205556</v>
@@ -13660,28 +13660,28 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0003608472570596081</v>
+        <v>0.000332387453364849</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E211">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F211">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K211">
         <v>0.0009800322941205556</v>
@@ -13710,28 +13710,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.000355342060091566</v>
+        <v>0.000332387453364849</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E212">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F212">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K212">
         <v>0.0009453291727436131</v>
@@ -13760,7 +13760,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0003278078747414822</v>
+        <v>0.000332387453364849</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>446</v>
@@ -13810,7 +13810,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0003278078747414822</v>
+        <v>0.000332387453364849</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13828,7 +13828,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>447</v>
@@ -13860,25 +13860,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0003278078747414822</v>
+        <v>0.0002960209400816685</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E215">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>448</v>
@@ -13910,25 +13910,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0003278078747414822</v>
+        <v>0.0002955538736790051</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E216">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F216">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>449</v>
@@ -13960,25 +13960,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.000291942413183185</v>
+        <v>0.0002955538736790051</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F217">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>450</v>
@@ -14010,25 +14010,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0002914817819431358</v>
+        <v>0.0002743665944783538</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E218">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F218">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>451</v>
@@ -14060,25 +14060,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0002914817819431358</v>
+        <v>0.000254775027965829</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F219">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>452</v>
@@ -14110,25 +14110,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0002705864175242621</v>
+        <v>0.000254775027965829</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E220">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F220">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>453</v>
@@ -14160,7 +14160,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.000251264780331544</v>
+        <v>0.000254775027965829</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14178,7 +14178,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>454</v>
@@ -14210,7 +14210,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.000251264780331544</v>
+        <v>0.000254775027965829</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14228,7 +14228,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>455</v>
@@ -14260,25 +14260,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.000251264780331544</v>
+        <v>0.0002240193863123598</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E223">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F223">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>456</v>
@@ -14310,25 +14310,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.000251264780331544</v>
+        <v>0.0002093184141049644</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F224">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>457</v>
@@ -14360,25 +14360,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0002209328847540422</v>
+        <v>0.0002093184141049644</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F225">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>458</v>
@@ -14410,25 +14410,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.000206434460077795</v>
+        <v>0.0001760580346701395</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D226">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E226">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F226">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>459</v>
@@ -14460,25 +14460,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.000206434460077795</v>
+        <v>0.0001584056271787185</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F227">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>460</v>
@@ -14510,25 +14510,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0001736323365762878</v>
+        <v>0.0001584056271787185</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>461</v>
@@ -14560,7 +14560,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001562231409966892</v>
+        <v>0.0001584056271787185</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14578,7 +14578,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>462</v>
@@ -14610,7 +14610,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001562231409966892</v>
+        <v>0.0001584056271787185</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14628,7 +14628,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>463</v>
@@ -14660,7 +14660,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001562231409966892</v>
+        <v>0.0001584056271787185</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14678,7 +14678,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>464</v>
@@ -14710,7 +14710,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0001562231409966892</v>
+        <v>0.0001584056271787185</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14728,7 +14728,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>465</v>
@@ -14760,7 +14760,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0001562231409966892</v>
+        <v>0.0001584056271787185</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>466</v>
@@ -14810,7 +14810,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0001562231409966892</v>
+        <v>0.0001584056271787185</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14828,7 +14828,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>467</v>
@@ -14860,25 +14860,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001562231409966892</v>
+        <v>0.0001413814423334757</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D235">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E235">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="F235">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>468</v>
@@ -14910,25 +14910,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0001562231409966892</v>
+        <v>0.0001016471537098015</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E236">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F236">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>469</v>
@@ -14960,25 +14960,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0001394335125169418</v>
+        <v>0.0001016471537098015</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="F237">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>470</v>
@@ -15010,7 +15010,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0001002466762623435</v>
+        <v>0.0001016471537098015</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15028,7 +15028,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>471</v>
@@ -15060,7 +15060,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001002466762623435</v>
+        <v>0.0001016471537098015</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15078,7 +15078,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>472</v>
@@ -15110,7 +15110,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001002466762623435</v>
+        <v>0.0001016471537098015</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15128,7 +15128,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>473</v>
@@ -15160,7 +15160,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001002466762623435</v>
+        <v>0.0001016471537098015</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15178,7 +15178,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>474</v>
@@ -15210,7 +15210,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001002466762623435</v>
+        <v>0.0001016471537098015</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15228,7 +15228,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>475</v>
@@ -15260,7 +15260,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001002466762623435</v>
+        <v>0.0001016471537098015</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15278,7 +15278,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>476</v>
@@ -15310,7 +15310,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001002466762623435</v>
+        <v>0.0001016471537098015</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15328,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>477</v>
@@ -15360,7 +15360,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001002466762623435</v>
+        <v>0.0001016471537098015</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15378,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>478</v>
@@ -15410,25 +15410,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001002466762623435</v>
+        <v>5.851053924255159E-05</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E246">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F246">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>479</v>
@@ -15460,25 +15460,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001002466762623435</v>
+        <v>4.137319906928983E-05</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E247">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F247">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>480</v>
@@ -15510,13 +15510,13 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>5.770439083940254E-05</v>
+        <v>4.137319906928983E-05</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E248">
         <v>0.67</v>
@@ -15528,7 +15528,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>481</v>
@@ -15560,7 +15560,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>4.080316606678043E-05</v>
+        <v>4.137319906928983E-05</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15578,7 +15578,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>482</v>
@@ -15610,7 +15610,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>4.080316606678043E-05</v>
+        <v>4.137319906928983E-05</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15628,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>483</v>
@@ -15660,7 +15660,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>4.080316606678043E-05</v>
+        <v>4.137319906928983E-05</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15678,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>484</v>
@@ -15710,7 +15710,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>4.080316606678043E-05</v>
+        <v>4.137319906928983E-05</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15728,7 +15728,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>485</v>
@@ -15760,7 +15760,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>4.080316606678043E-05</v>
+        <v>4.137319906928983E-05</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -15778,7 +15778,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>486</v>
@@ -15810,7 +15810,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>4.080316606678043E-05</v>
+        <v>4.137319906928983E-05</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -15828,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>487</v>
@@ -15860,7 +15860,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>4.080316606678043E-05</v>
+        <v>4.137319906928983E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -15878,7 +15878,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>488</v>
@@ -15910,7 +15910,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>4.080316606678043E-05</v>
+        <v>4.137319906928983E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -15928,7 +15928,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>489</v>
@@ -15960,7 +15960,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>4.080316606678043E-05</v>
+        <v>4.137319906928983E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -15978,7 +15978,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>490</v>
@@ -16010,25 +16010,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>4.080316606678043E-05</v>
+        <v>2.47623466368311E-05</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E258">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="F258">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>491</v>
@@ -16060,25 +16060,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>4.080316606678043E-05</v>
+        <v>0</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E259">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F259">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>492</v>
@@ -16110,25 +16110,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>2.442117517510943E-05</v>
+        <v>0</v>
       </c>
       <c r="C260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E260">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F260">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>493</v>
@@ -16178,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>494</v>
@@ -16228,7 +16228,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>495</v>
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>496</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>497</v>
@@ -16378,7 +16378,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>498</v>
@@ -16428,7 +16428,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>499</v>
@@ -16478,7 +16478,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>500</v>
@@ -16528,7 +16528,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>501</v>
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>502</v>
@@ -16628,7 +16628,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>503</v>
@@ -16678,7 +16678,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>504</v>
@@ -16728,7 +16728,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>505</v>
@@ -16778,7 +16778,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>506</v>
@@ -16806,30 +16806,6 @@
       </c>
     </row>
     <row r="274" spans="1:17">
-      <c r="A274" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>2</v>
-      </c>
-      <c r="E274">
-        <v>0.5</v>
-      </c>
-      <c r="F274">
-        <v>0.5</v>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274">
-        <v>27</v>
-      </c>
       <c r="J274" s="1" t="s">
         <v>507</v>
       </c>
@@ -16856,30 +16832,6 @@
       </c>
     </row>
     <row r="275" spans="1:17">
-      <c r="A275" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-      <c r="C275">
-        <v>1</v>
-      </c>
-      <c r="D275">
-        <v>2</v>
-      </c>
-      <c r="E275">
-        <v>0.5</v>
-      </c>
-      <c r="F275">
-        <v>0.5</v>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275">
-        <v>48</v>
-      </c>
       <c r="J275" s="1" t="s">
         <v>508</v>
       </c>
@@ -17063,7 +17015,7 @@
     </row>
     <row r="282" spans="1:17">
       <c r="J282" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K282">
         <v>0.0009338349113164274</v>
@@ -17089,7 +17041,7 @@
     </row>
     <row r="283" spans="1:17">
       <c r="J283" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K283">
         <v>0.0009016616191722127</v>
@@ -17115,7 +17067,7 @@
     </row>
     <row r="284" spans="1:17">
       <c r="J284" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K284">
         <v>0.000870598096928971</v>
@@ -17141,7 +17093,7 @@
     </row>
     <row r="285" spans="1:17">
       <c r="J285" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K285">
         <v>0.0008333002950431586</v>
@@ -17167,7 +17119,7 @@
     </row>
     <row r="286" spans="1:17">
       <c r="J286" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K286">
         <v>0.0007955714193774488</v>
@@ -17193,7 +17145,7 @@
     </row>
     <row r="287" spans="1:17">
       <c r="J287" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K287">
         <v>0.0007955714193774488</v>
@@ -17219,7 +17171,7 @@
     </row>
     <row r="288" spans="1:17">
       <c r="J288" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K288">
         <v>0.0007911483913103612</v>
@@ -17245,7 +17197,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K289">
         <v>0.0007911483913103612</v>
@@ -17271,7 +17223,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K290">
         <v>0.0007771819302770417</v>
@@ -17297,7 +17249,7 @@
     </row>
     <row r="291" spans="10:17">
       <c r="J291" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K291">
         <v>0.0007771819302770417</v>
@@ -20573,7 +20525,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K417">
         <v>0.0007573984024676635</v>
@@ -20599,7 +20551,7 @@
     </row>
     <row r="418" spans="10:17">
       <c r="J418" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K418">
         <v>0.0007573984024676635</v>
@@ -20625,7 +20577,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K419">
         <v>0.0007187681342471871</v>
@@ -20651,7 +20603,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K420">
         <v>0.0007187681342471871</v>
@@ -20677,7 +20629,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K421">
         <v>0.0007187681342471871</v>
@@ -20703,7 +20655,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K422">
         <v>0.0006796676819489432</v>
@@ -20729,7 +20681,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K423">
         <v>0.0006326410295615886</v>
@@ -20755,7 +20707,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K424">
         <v>0.0006000074544200439</v>
@@ -20781,7 +20733,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K425">
         <v>0.0005594263924203846</v>
@@ -20807,7 +20759,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K426">
         <v>0.0005451212089022483</v>
@@ -28659,7 +28611,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K728">
         <v>0.0005183342573109134</v>
@@ -28685,7 +28637,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K729">
         <v>0.0004767280158614368</v>
@@ -28711,7 +28663,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K730">
         <v>0.0004767280158614368</v>
@@ -28737,7 +28689,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K731">
         <v>0.0004767280158614368</v>
@@ -28763,7 +28715,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K732">
         <v>0.0004767280158614368</v>
@@ -28789,7 +28741,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K733">
         <v>0.0004767280158614368</v>
@@ -28841,7 +28793,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K735">
         <v>0.0004346109961128187</v>
@@ -28867,7 +28819,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K736">
         <v>0.0004346109961128187</v>
@@ -28893,7 +28845,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K737">
         <v>0.0004346109961128187</v>
@@ -28919,7 +28871,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K738">
         <v>0.0004131330388343828</v>
@@ -28945,7 +28897,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K739">
         <v>0.0003919962844293751</v>
@@ -28971,7 +28923,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K740">
         <v>0.0003514340087163795</v>
@@ -28997,7 +28949,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K741">
         <v>0.0003489120184249788</v>
@@ -29023,7 +28975,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K742">
         <v>0.0003489120184249788</v>
@@ -29049,7 +29001,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K743">
         <v>0.0003489120184249788</v>
@@ -29075,7 +29027,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K744">
         <v>0.000305409850981128</v>
@@ -29101,7 +29053,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K745">
         <v>0.000305409850981128</v>
@@ -29127,7 +29079,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K746">
         <v>0.000305409850981128</v>
@@ -29153,7 +29105,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K747">
         <v>0.0003007504241662145</v>
@@ -29179,7 +29131,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K748">
         <v>0.000261578926802339</v>
@@ -29205,7 +29157,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K749">
         <v>0.000261578926802339</v>
@@ -29231,7 +29183,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K750">
         <v>0.000261578926802339</v>
@@ -29257,7 +29209,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K751">
         <v>0.000261578926802339</v>
@@ -29283,7 +29235,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K752">
         <v>0.0002455616930442774</v>
@@ -29309,7 +29261,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K753">
         <v>0.0002175699008635537</v>
@@ -29335,7 +29287,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K754">
         <v>0.0002175699008635537</v>
@@ -29361,7 +29313,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K755">
         <v>0.000196449087369252</v>
@@ -29387,7 +29339,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K756">
         <v>0.0001841707148086595</v>
@@ -29413,7 +29365,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K757">
         <v>0.0001736383383512581</v>
@@ -29439,7 +29391,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K758">
         <v>0.0001736383383512581</v>
@@ -29465,7 +29417,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K759">
         <v>0.0001736383383512581</v>
@@ -29491,7 +29443,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K760">
         <v>0.0001736383383512581</v>
@@ -29543,7 +29495,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K762">
         <v>0.0001526772631851653</v>
@@ -29569,7 +29521,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K763">
         <v>0.0001302283613371769</v>
@@ -29595,7 +29547,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K764">
         <v>0.0001302283613371769</v>
@@ -29621,7 +29573,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K765">
         <v>0.00012466046337609</v>
@@ -29647,7 +29599,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K766">
         <v>8.814825899909054E-05</v>
@@ -29673,7 +29625,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K767">
         <v>8.814825899909054E-05</v>
@@ -29699,7 +29651,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K768">
         <v>8.814825899909054E-05</v>
@@ -29725,7 +29677,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K769">
         <v>8.814825899909054E-05</v>
@@ -29751,7 +29703,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K770">
         <v>8.814825899909054E-05</v>
@@ -29777,7 +29729,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K771">
         <v>8.814825899909054E-05</v>
@@ -29803,7 +29755,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K772">
         <v>8.814825899909054E-05</v>
@@ -29829,7 +29781,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K773">
         <v>8.814825899909054E-05</v>
@@ -29855,7 +29807,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K774">
         <v>8.484565660305982E-05</v>
@@ -29881,7 +29833,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K775">
         <v>6.423768953206705E-05</v>
@@ -29907,7 +29859,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K776">
         <v>4.898566267934714E-05</v>
@@ -29933,7 +29885,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K777">
         <v>4.898566267934714E-05</v>
@@ -29959,7 +29911,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K778">
         <v>4.898566267934714E-05</v>
@@ -29985,7 +29937,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K779">
         <v>4.898566267934714E-05</v>
@@ -30011,7 +29963,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K780">
         <v>4.898566267934714E-05</v>
@@ -30037,7 +29989,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K781">
         <v>4.898566267934714E-05</v>
@@ -30063,7 +30015,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K782">
         <v>4.898566267934714E-05</v>
@@ -30089,7 +30041,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K783">
         <v>4.898566267934714E-05</v>
@@ -30115,7 +30067,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K784">
         <v>4.898566267934714E-05</v>
@@ -30141,7 +30093,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K785">
         <v>4.898566267934714E-05</v>
@@ -30167,7 +30119,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K786">
         <v>2.302301712467633E-05</v>
@@ -30193,7 +30145,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K787">
         <v>1.627973153223272E-05</v>
@@ -30219,7 +30171,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K788">
         <v>1.627973153223272E-05</v>
@@ -30245,7 +30197,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K789">
         <v>1.627973153223272E-05</v>
@@ -30271,7 +30223,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K790">
         <v>1.627973153223272E-05</v>
@@ -30297,7 +30249,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K791">
         <v>1.627973153223272E-05</v>
@@ -30323,7 +30275,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K792">
         <v>1.627973153223272E-05</v>
@@ -30349,7 +30301,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K793">
         <v>1.627973153223272E-05</v>
@@ -30375,7 +30327,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K794">
         <v>1.627973153223272E-05</v>
@@ -30401,7 +30353,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K795">
         <v>1.627973153223272E-05</v>
@@ -30427,7 +30379,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K796">
         <v>1.627973153223272E-05</v>
@@ -30453,7 +30405,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K797">
         <v>1.627973153223272E-05</v>
@@ -30479,7 +30431,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K798">
         <v>5.625476403014271E-06</v>
@@ -30505,7 +30457,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K799">
         <v>0</v>
@@ -30531,7 +30483,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K800">
         <v>0</v>
@@ -30557,7 +30509,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K801">
         <v>0</v>
@@ -30583,7 +30535,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K802">
         <v>0</v>
@@ -30609,7 +30561,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K803">
         <v>0</v>
@@ -30635,7 +30587,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K804">
         <v>0</v>
@@ -30661,7 +30613,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K805">
         <v>0</v>
@@ -30687,7 +30639,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K806">
         <v>0</v>
@@ -30713,7 +30665,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K807">
         <v>0</v>
@@ -30739,7 +30691,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K808">
         <v>0</v>
@@ -30765,7 +30717,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K809">
         <v>0</v>
@@ -30791,7 +30743,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K810">
         <v>0</v>
@@ -30817,7 +30769,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K811">
         <v>0</v>
@@ -30843,7 +30795,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K812">
         <v>0</v>
@@ -30869,7 +30821,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K813">
         <v>0</v>
